--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2D_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2D_genetic_schedule.xlsx
@@ -520,9 +520,9 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>PH 200 - Physics Advanced
+          <t>AS 204 - Astronomy
 2D
-Room 158</t>
+Room 165</t>
         </is>
       </c>
     </row>
@@ -564,13 +564,7 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>GE 203 - Geology
-2D
-Room 161</t>
-        </is>
-      </c>
+      <c r="B7" s="2" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -609,6 +603,113 @@
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>MB 205 - Microbiology
+2D
+Room 170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>BI 301 - Biology
+2D
+Room 196</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>MB 205 - Microbiology
 2D
@@ -616,143 +717,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>MB 205 - Microbiology
-2D
-Room 170</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>AS 204 - Astronomy
-2D
-Room 165</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>CH 302 - Chemistry
-2D
-Room 192</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>BI 301 - Biology
-2D
-Room 196</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>GE 203 - Geology
-2D
-Room 264</t>
-        </is>
-      </c>
+      <c r="B25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -760,7 +731,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -770,19 +740,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
